--- a/API設計.xlsx
+++ b/API設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotori\Documents\GitHub\SerakuPJ_Bteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F308AE0F-04E4-4AFC-8F2A-74E5ABCC8DE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8CC4B4-43EC-4213-8422-C93C445F64F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29895" yWindow="8415" windowWidth="17580" windowHeight="12435" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
+    <workbookView xWindow="810" yWindow="780" windowWidth="14430" windowHeight="12720" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Store（店舗情報）" sheetId="1" r:id="rId1"/>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・URL/store/(store_code)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※店舗コード（16進数6桁）を送信すると、そのコードを持つ店舗情報を取得</t>
     <rPh sb="1" eb="3">
       <t>テンポ</t>
@@ -251,6 +247,10 @@
     <rPh sb="14" eb="16">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・URL/store?store_code=(store_code)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -682,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -694,7 +694,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -706,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -754,7 +754,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -815,7 +815,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -836,17 +836,17 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -913,22 +913,22 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/API設計.xlsx
+++ b/API設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotori\Documents\GitHub\SerakuPJ_Bteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8CC4B4-43EC-4213-8422-C93C445F64F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020D1B61-7890-4487-A6FC-1E69D3204A60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="780" windowWidth="14430" windowHeight="12720" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>コマンド一覧</t>
     <rPh sb="4" eb="6">
@@ -251,6 +251,10 @@
   </si>
   <si>
     <t>・URL/store?store_code=(store_code)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・URL/store/(store_code)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -815,7 +819,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">

--- a/API設計.xlsx
+++ b/API設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotori\Documents\GitHub\SerakuPJ_Bteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020D1B61-7890-4487-A6FC-1E69D3204A60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C377BB-85C3-4FC5-B2FB-1EC9E8DF2A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="780" windowWidth="14430" windowHeight="12720" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
+    <workbookView xWindow="1455" yWindow="1500" windowWidth="14430" windowHeight="12720" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Store（店舗情報）" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
   <si>
     <t>コマンド一覧</t>
     <rPh sb="4" eb="6">
@@ -140,19 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（空白だnilになるのか、int型扱いにならない）</t>
-    <rPh sb="1" eb="3">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※店舗コード（16進数6桁）を送信すると、そのコードを持つ店舗情報を取得</t>
     <rPh sb="1" eb="3">
       <t>テンポ</t>
@@ -205,10 +192,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・URL/sotre?store_code=(store_code)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※店舗コード（16進数6桁）はURLに記載。そのコードを持つ店舗情報を更新</t>
     <rPh sb="1" eb="3">
       <t>テンポ</t>
@@ -255,6 +238,167 @@
   </si>
   <si>
     <t>・URL/store/(store_code)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・URL/menu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcode</t>
+  </si>
+  <si>
+    <t>menu_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mname</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>menu_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4桁16進数</t>
+    <rPh sb="1" eb="2">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mySQL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・URL/menus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※全メニューデータ取得</t>
+    <rPh sb="1" eb="2">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・URL/menu/(menu_code)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※メニューコード（16進数4桁）を送信すると、そのコードを持つメニュー情報を取得</t>
+    <rPh sb="11" eb="13">
+      <t>シンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・URL/menu?menu_code=(menu_code)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※メニューコード（16進数4桁）はURLに記載。そのコードを持つメニュー情報を更新</t>
+    <rPh sb="11" eb="13">
+      <t>シンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※指定MenuCode行を削除</t>
+    <rPh sb="1" eb="3">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（空白かnilになるのか、int型扱いにならない）</t>
+    <rPh sb="1" eb="3">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アツカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -325,7 +469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,6 +480,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -698,7 +845,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -710,7 +857,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -758,7 +905,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -778,7 +925,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="E13" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -819,7 +966,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -840,17 +987,17 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -917,22 +1064,22 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -944,13 +1091,229 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF68B88-5962-4A82-B7AF-BCAD72B79662}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/API設計.xlsx
+++ b/API設計.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotori\Documents\GitHub\SerakuPJ_Bteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5BCDC0-4E6E-4895-B6C5-BE13AF5B9690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF361EF5-A0AF-499B-9DF3-B7C1E96EF18E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25110" yWindow="1020" windowWidth="18330" windowHeight="16290" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Store（店舗情報）" sheetId="1" r:id="rId1"/>
     <sheet name="Menu（メニュー情報）" sheetId="2" r:id="rId2"/>
+    <sheet name="Order（注文情報）_編集中" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="111">
   <si>
     <t>key</t>
     <phoneticPr fontId="1"/>
@@ -80,22 +81,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GET</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DELETE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PUT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mySQL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -112,14 +97,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>POST</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・URL/menu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mcode</t>
   </si>
   <si>
@@ -145,118 +122,6 @@
   </si>
   <si>
     <t>detail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4桁16進数</t>
-    <rPh sb="1" eb="2">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mySQL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・URL/menus</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※全メニューデータ取得</t>
-    <rPh sb="1" eb="2">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・URL/menu/(menu_code)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※メニューコード（16進数4桁）を送信すると、そのコードを持つメニュー情報を取得</t>
-    <rPh sb="11" eb="13">
-      <t>シンスウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コマンド一覧</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・URL/menu?menu_code=(menu_code)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※メニューコード（16進数4桁）はURLに記載。そのコードを持つメニュー情報を更新</t>
-    <rPh sb="11" eb="13">
-      <t>シンスウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ケタ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※指定MenuCode行を削除</t>
-    <rPh sb="1" eb="3">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクジョ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -312,16 +177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>株式会社セラク　丹羽</t>
-    <rPh sb="0" eb="4">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -810,6 +665,240 @@
     </rPh>
     <rPh sb="94" eb="96">
       <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー情報の取得、登録、編集、削除</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Postmanにて「URL/menus」をURL欄に入力し、Sendボタンを押下</t>
+    <rPh sb="38" eb="40">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功すると登録済の全メニュー情報がBodyに表示される</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・全メニュー情報の取得</t>
+    <rPh sb="1" eb="2">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・個別メニュー情報の取得</t>
+    <rPh sb="1" eb="3">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功すると登録済の指定したメニュー情報がBodyに表示される</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Postmanにて「URL/menu/(メニューコード)」をURL欄に入力し、Sendボタンを押下</t>
+    <rPh sb="47" eb="49">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Postmanにて「URL/menu」をURL欄に入力し、Body項目にて各keyを設定し、Sendボタンを押下</t>
+    <rPh sb="54" eb="56">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値段</t>
+    <rPh sb="0" eb="2">
+      <t>ネダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Body
+(form_data)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4桁16進数)</t>
+  </si>
+  <si>
+    <t>(4桁16進数)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Postmanにて「URL/menu」をURL欄に入力し、Params項目にてメニューコードを設定、Body項目にて店舗コード以外の各keyを設定し、</t>
+    <rPh sb="35" eb="37">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・メニュー情報の登録</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・メニュー情報の編集</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>menu_code</t>
+  </si>
+  <si>
+    <t>mcode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文情報の取得、登録、編集、削除</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Postmanにて「URL/orders」をURL欄に入力し、Sendボタンを押下</t>
+    <rPh sb="39" eb="41">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社セラク　Bチーム</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -873,7 +962,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1144,6 +1233,51 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1401,13 +1535,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1429,6 +1602,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1443,6 +1619,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1471,13 +1653,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -1486,7 +1668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1501,22 +1683,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1537,49 +1719,49 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1588,71 +1770,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1974,7 +2210,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:H24"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1985,709 +2221,709 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
+      <c r="A1" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="A2" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="75" t="s">
-        <v>48</v>
+      <c r="G2" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="78" t="s">
+        <v>29</v>
       </c>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="77"/>
+      <c r="A3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79"/>
+        <v>26</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="13"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="81"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30" t="s">
-        <v>15</v>
+      <c r="A10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="57" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>62</v>
+      <c r="F11" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="45"/>
+      <c r="A12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30" t="s">
-        <v>15</v>
+      <c r="A17" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="31"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="57" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>62</v>
+      <c r="F18" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="45"/>
+      <c r="A19" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30" t="s">
-        <v>15</v>
+      <c r="A24" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="57" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="40" t="s">
-        <v>62</v>
+      <c r="F25" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="43" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="60" t="s">
+      <c r="A26" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="15" t="s">
+      <c r="E26" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="17" t="s">
-        <v>16</v>
+      <c r="I26" s="20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="22"/>
-      <c r="B27" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="63"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="66"/>
       <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="7" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="12" t="s">
-        <v>17</v>
+      <c r="I27" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="22"/>
-      <c r="B28" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="63"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="66"/>
       <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="7" t="s">
+      <c r="E28" s="8"/>
+      <c r="F28" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="22"/>
-      <c r="B29" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="63"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="66"/>
       <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H29" s="7" t="s">
+      <c r="E29" s="8"/>
+      <c r="F29" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="22"/>
-      <c r="B30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="63"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="66"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="7" t="s">
+      <c r="E30" s="8"/>
+      <c r="F30" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="22"/>
-      <c r="B31" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="63"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="66"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" s="7" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="12" t="s">
-        <v>18</v>
+      <c r="I31" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="23"/>
-      <c r="B32" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="62" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="67"/>
+      <c r="D32" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="9" t="s">
+      <c r="E32" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H38" s="29"/>
-      <c r="I38" s="30" t="s">
-        <v>15</v>
+      <c r="A38" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="32"/>
+      <c r="I38" s="33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="36"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="57" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="E39" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F39" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="I39" s="40" t="s">
-        <v>62</v>
+      <c r="F39" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="60" t="s">
+      <c r="A40" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" s="15" t="s">
+      <c r="E40" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="17" t="s">
-        <v>16</v>
+      <c r="I40" s="20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="22"/>
-      <c r="B41" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="67" t="s">
-        <v>101</v>
+      <c r="A41" s="25"/>
+      <c r="B41" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>81</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H41" s="7" t="s">
+      <c r="E41" s="8"/>
+      <c r="F41" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="12" t="s">
-        <v>17</v>
+      <c r="I41" s="15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="22"/>
-      <c r="B42" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="68"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="71"/>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H42" s="7" t="s">
+      <c r="E42" s="8"/>
+      <c r="F42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="22"/>
-      <c r="B43" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="68"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="71"/>
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H43" s="7" t="s">
+      <c r="E43" s="8"/>
+      <c r="F43" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="22"/>
-      <c r="B44" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="68"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="71"/>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" s="7" t="s">
+      <c r="E44" s="8"/>
+      <c r="F44" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="22"/>
-      <c r="B45" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="68"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="71"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="7" t="s">
+      <c r="E45" s="8"/>
+      <c r="F45" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="12" t="s">
-        <v>18</v>
+      <c r="I45" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="23"/>
-      <c r="B46" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="69"/>
-      <c r="D46" s="62" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="72"/>
+      <c r="D46" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H46" s="9" t="s">
+      <c r="E46" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="I46" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2698,94 +2934,94 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H51" s="29"/>
-      <c r="I51" s="30" t="s">
-        <v>15</v>
+      <c r="A51" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="30"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="32"/>
+      <c r="I51" s="33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="36"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="57" t="s">
+      <c r="A52" s="39"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="G52" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H52" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="I52" s="40" t="s">
-        <v>62</v>
+      <c r="F52" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" s="43" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="71" t="s">
+      <c r="A53" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="G53" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="H53" s="25" t="s">
+      <c r="E53" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="73" t="s">
-        <v>16</v>
+      <c r="I53" s="76" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2830,229 +3066,1537 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF68B88-5962-4A82-B7AF-BCAD72B79662}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="80"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="16"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="48"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="34"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="48"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="89" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="94"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" s="94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="90"/>
+      <c r="B27" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" s="95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="90"/>
+      <c r="B28" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="95"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="91"/>
+      <c r="B29" s="96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="96" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="32"/>
+      <c r="I35" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="34"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="90"/>
+      <c r="B38" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="E38" s="8"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" s="95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="90"/>
+      <c r="B39" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="101"/>
+      <c r="D39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="91"/>
+      <c r="B40" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="102"/>
+      <c r="D40" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" s="32"/>
+      <c r="I45" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E46" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>41</v>
+      <c r="F46" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="47"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="76" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I5"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0664B7A0-99C2-4176-847A-EBEF7477ADCC}">
+  <dimension ref="A1:J53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="9" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="80"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="16"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="84"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="48"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="34"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="48"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="25"/>
+      <c r="B27" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="66"/>
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="25"/>
+      <c r="B28" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="66"/>
+      <c r="D28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="25"/>
+      <c r="B29" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="66"/>
+      <c r="D29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="25"/>
+      <c r="B30" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="66"/>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="25"/>
+      <c r="B31" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="66"/>
+      <c r="D31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="26"/>
+      <c r="B32" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="67"/>
+      <c r="D32" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="32"/>
+      <c r="I38" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="39"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="25"/>
+      <c r="B41" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="25"/>
+      <c r="B42" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="71"/>
+      <c r="D42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="25"/>
+      <c r="B43" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="71"/>
+      <c r="D43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="25"/>
+      <c r="B44" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="71"/>
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="25"/>
+      <c r="B45" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="71"/>
+      <c r="D45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="26"/>
+      <c r="B46" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="72"/>
+      <c r="D46" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="30"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="32"/>
+      <c r="I51" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="39"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" s="43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" s="76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/API設計.xlsx
+++ b/API設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kotori\Documents\GitHub\SerakuPJ_Bteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF361EF5-A0AF-499B-9DF3-B7C1E96EF18E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56E74D6-9FD2-41EA-BF92-1664B2C9D1D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
+    <workbookView xWindow="8415" yWindow="360" windowWidth="21075" windowHeight="14835" xr2:uid="{6CD5D422-6C48-43B2-A20C-F480BDA33AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Store（店舗情報）" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="119">
   <si>
     <t>key</t>
     <phoneticPr fontId="1"/>
@@ -900,6 +900,38 @@
     <rPh sb="0" eb="4">
       <t>カブシキガイシャ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1580,7 +1612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1595,300 +1627,297 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2221,81 +2250,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="62" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="83"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="9" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="16"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -2313,65 +2342,65 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="45" t="s">
+      <c r="D10" s="75"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33" t="s">
+      <c r="H10" s="80"/>
+      <c r="I10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="59" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="48"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
@@ -2389,65 +2418,65 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="45" t="s">
+      <c r="D17" s="75"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33" t="s">
+      <c r="H17" s="80"/>
+      <c r="I17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="34"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="59" t="s">
+      <c r="A18" s="92"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="48"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
@@ -2465,219 +2494,219 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="61" t="s">
+      <c r="D24" s="75"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33" t="s">
+      <c r="H24" s="80"/>
+      <c r="I24" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="59" t="s">
+      <c r="A25" s="74"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="25"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="87"/>
+      <c r="B27" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="66"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="22" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="25"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="87"/>
+      <c r="B28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="66"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="22" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="25"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="87"/>
+      <c r="B29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="66"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="22" t="s">
+      <c r="E29" s="6"/>
+      <c r="F29" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="25"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="87"/>
+      <c r="B30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="66"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="22" t="s">
+      <c r="E30" s="6"/>
+      <c r="F30" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="25"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="87"/>
+      <c r="B31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="66"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="22" t="s">
+      <c r="E31" s="6"/>
+      <c r="F31" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="26"/>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="88"/>
+      <c r="B32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="65" t="s">
+      <c r="C32" s="91"/>
+      <c r="D32" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2702,85 +2731,85 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="61" t="s">
+      <c r="D38" s="75"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="31" t="s">
+      <c r="G38" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="32"/>
-      <c r="I38" s="33" t="s">
+      <c r="H38" s="80"/>
+      <c r="I38" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="39"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="59" t="s">
+      <c r="A39" s="74"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="60" t="s">
+      <c r="D39" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="41" t="s">
+      <c r="G39" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="42" t="s">
+      <c r="H39" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="43" t="s">
+      <c r="I39" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="20" t="s">
+      <c r="I40" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="25"/>
-      <c r="B41" s="22" t="s">
+      <c r="A41" s="87"/>
+      <c r="B41" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="70" t="s">
@@ -2789,141 +2818,141 @@
       <c r="D41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="22" t="s">
+      <c r="E41" s="6"/>
+      <c r="F41" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="25"/>
-      <c r="B42" s="22" t="s">
+      <c r="A42" s="87"/>
+      <c r="B42" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="71"/>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="22" t="s">
+      <c r="E42" s="6"/>
+      <c r="F42" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="25"/>
-      <c r="B43" s="22" t="s">
+      <c r="A43" s="87"/>
+      <c r="B43" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="71"/>
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="22" t="s">
+      <c r="E43" s="6"/>
+      <c r="F43" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="I43" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="25"/>
-      <c r="B44" s="22" t="s">
+      <c r="A44" s="87"/>
+      <c r="B44" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C44" s="71"/>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="22" t="s">
+      <c r="E44" s="6"/>
+      <c r="F44" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="25"/>
-      <c r="B45" s="22" t="s">
+      <c r="A45" s="87"/>
+      <c r="B45" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C45" s="71"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="22" t="s">
+      <c r="E45" s="6"/>
+      <c r="F45" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="26"/>
-      <c r="B46" s="23" t="s">
+      <c r="A46" s="88"/>
+      <c r="B46" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C46" s="72"/>
-      <c r="D46" s="65" t="s">
+      <c r="D46" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2948,84 +2977,99 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="61" t="s">
+      <c r="D51" s="75"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G51" s="31" t="s">
+      <c r="G51" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="32"/>
-      <c r="I51" s="33" t="s">
+      <c r="H51" s="80"/>
+      <c r="I51" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="39"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="59" t="s">
+      <c r="A52" s="74"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="60" t="s">
+      <c r="D52" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E52" s="42" t="s">
+      <c r="E52" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G52" s="41" t="s">
+      <c r="G52" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="42" t="s">
+      <c r="H52" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I52" s="43" t="s">
+      <c r="I52" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="73" t="s">
+      <c r="C53" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D53" s="74" t="s">
+      <c r="D53" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="47" t="s">
+      <c r="F53" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="G53" s="75" t="s">
+      <c r="G53" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="28" t="s">
+      <c r="H53" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="76" t="s">
+      <c r="I53" s="51" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:I5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C41:C46"/>
@@ -3033,11 +3077,6 @@
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="G38:H38"/>
@@ -3047,16 +3086,6 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C26:C32"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3069,7 +3098,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I5"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3080,81 +3109,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="62" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="83"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="9" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="16"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -3172,65 +3201,65 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="45" t="s">
+      <c r="D10" s="75"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33" t="s">
+      <c r="H10" s="80"/>
+      <c r="I10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="59" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="48"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
@@ -3248,65 +3277,65 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="45" t="s">
+      <c r="D17" s="75"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33" t="s">
+      <c r="H17" s="80"/>
+      <c r="I17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="34"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="59" t="s">
+      <c r="A18" s="92"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="48"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
@@ -3324,134 +3353,150 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="61" t="s">
+      <c r="D24" s="75"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33" t="s">
+      <c r="H24" s="80"/>
+      <c r="I24" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="85" t="s">
+      <c r="A25" s="92"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="37" t="s">
+      <c r="H25" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="93" t="s">
+      <c r="E26" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="94"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="64" t="s">
+      <c r="F26" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="I26" s="94" t="s">
+      <c r="I26" s="57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="90"/>
-      <c r="B27" s="95" t="s">
+      <c r="A27" s="96"/>
+      <c r="B27" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I27" s="95" t="s">
+      <c r="I27" s="58" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="90"/>
-      <c r="B28" s="95" t="s">
+      <c r="A28" s="96"/>
+      <c r="B28" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="14"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="95"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8" t="s">
+      <c r="F28" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I28" s="95" t="s">
+      <c r="I28" s="58" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="91"/>
-      <c r="B29" s="96" t="s">
+      <c r="A29" s="97"/>
+      <c r="B29" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="88" t="s">
+      <c r="C29" s="69"/>
+      <c r="D29" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10" t="s">
+      <c r="E29" s="8"/>
+      <c r="F29" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="96" t="s">
+      <c r="I29" s="59" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3479,136 +3524,152 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="61" t="s">
+      <c r="D35" s="75"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="G35" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33" t="s">
+      <c r="H35" s="80"/>
+      <c r="I35" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="85" t="s">
+      <c r="A36" s="92"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="86" t="s">
+      <c r="D36" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F36" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="36" t="s">
+      <c r="G36" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I36" s="38" t="s">
+      <c r="I36" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="89" t="s">
+      <c r="A37" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="98" t="s">
+      <c r="B37" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="97" t="s">
+      <c r="C37" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="87" t="s">
+      <c r="D37" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="93" t="s">
+      <c r="E37" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="64" t="s">
+      <c r="F37" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="I37" s="94" t="s">
+      <c r="I37" s="57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="90"/>
-      <c r="B38" s="99" t="s">
+      <c r="A38" s="96"/>
+      <c r="B38" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="101" t="s">
+      <c r="C38" s="98" t="s">
         <v>98</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8" t="s">
+      <c r="E38" s="6"/>
+      <c r="F38" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I38" s="95" t="s">
+      <c r="I38" s="58" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="90"/>
-      <c r="B39" s="99" t="s">
+      <c r="A39" s="96"/>
+      <c r="B39" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="101"/>
+      <c r="C39" s="98"/>
       <c r="D39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="8" t="s">
+      <c r="F39" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I39" s="95" t="s">
+      <c r="I39" s="58" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="91"/>
-      <c r="B40" s="100" t="s">
+      <c r="A40" s="97"/>
+      <c r="B40" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="102"/>
-      <c r="D40" s="88" t="s">
+      <c r="C40" s="99"/>
+      <c r="D40" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10" t="s">
+      <c r="E40" s="8"/>
+      <c r="F40" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I40" s="96" t="s">
+      <c r="I40" s="59" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3631,80 +3692,105 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="61" t="s">
+      <c r="D45" s="75"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="31" t="s">
+      <c r="G45" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H45" s="32"/>
-      <c r="I45" s="33" t="s">
+      <c r="H45" s="80"/>
+      <c r="I45" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="39"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="59" t="s">
+      <c r="A46" s="74"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="60" t="s">
+      <c r="D46" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="42" t="s">
+      <c r="E46" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="43" t="s">
+      <c r="F46" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G46" s="41" t="s">
+      <c r="G46" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H46" s="42" t="s">
+      <c r="H46" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I46" s="43" t="s">
+      <c r="I46" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="73" t="s">
+      <c r="C47" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="74" t="s">
+      <c r="D47" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="47"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="28" t="s">
+      <c r="F47" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="76" t="s">
+      <c r="I47" s="51" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="A26:A29"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="C45:E45"/>
@@ -3715,27 +3801,6 @@
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="C38:C40"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3759,81 +3824,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="62" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="83"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="9" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="16"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="84"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -3851,65 +3916,65 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="45" t="s">
+      <c r="D10" s="75"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33" t="s">
+      <c r="H10" s="80"/>
+      <c r="I10" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="59" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="48"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
@@ -3927,65 +3992,65 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="45" t="s">
+      <c r="D17" s="75"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33" t="s">
+      <c r="H17" s="80"/>
+      <c r="I17" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="34"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="59" t="s">
+      <c r="A18" s="92"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="48"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
@@ -4003,219 +4068,219 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="61" t="s">
+      <c r="D24" s="75"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33" t="s">
+      <c r="H24" s="80"/>
+      <c r="I24" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="59" t="s">
+      <c r="A25" s="74"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="25"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="87"/>
+      <c r="B27" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="66"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="22" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="25"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="87"/>
+      <c r="B28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="66"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="22" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="25"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="87"/>
+      <c r="B29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="66"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="22" t="s">
+      <c r="E29" s="6"/>
+      <c r="F29" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="25"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="87"/>
+      <c r="B30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="66"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="22" t="s">
+      <c r="E30" s="6"/>
+      <c r="F30" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="25"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="87"/>
+      <c r="B31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="66"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="22" t="s">
+      <c r="E31" s="6"/>
+      <c r="F31" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="26"/>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="88"/>
+      <c r="B32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="65" t="s">
+      <c r="C32" s="91"/>
+      <c r="D32" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4240,85 +4305,85 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="61" t="s">
+      <c r="D38" s="75"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="31" t="s">
+      <c r="G38" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="32"/>
-      <c r="I38" s="33" t="s">
+      <c r="H38" s="80"/>
+      <c r="I38" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="39"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="59" t="s">
+      <c r="A39" s="74"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="60" t="s">
+      <c r="D39" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="41" t="s">
+      <c r="G39" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="42" t="s">
+      <c r="H39" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="43" t="s">
+      <c r="I39" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="20" t="s">
+      <c r="I40" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="25"/>
-      <c r="B41" s="22" t="s">
+      <c r="A41" s="87"/>
+      <c r="B41" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="70" t="s">
@@ -4327,141 +4392,141 @@
       <c r="D41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="22" t="s">
+      <c r="E41" s="6"/>
+      <c r="F41" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="25"/>
-      <c r="B42" s="22" t="s">
+      <c r="A42" s="87"/>
+      <c r="B42" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="71"/>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="22" t="s">
+      <c r="E42" s="6"/>
+      <c r="F42" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="25"/>
-      <c r="B43" s="22" t="s">
+      <c r="A43" s="87"/>
+      <c r="B43" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="71"/>
       <c r="D43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="22" t="s">
+      <c r="E43" s="6"/>
+      <c r="F43" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="I43" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="25"/>
-      <c r="B44" s="22" t="s">
+      <c r="A44" s="87"/>
+      <c r="B44" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C44" s="71"/>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="22" t="s">
+      <c r="E44" s="6"/>
+      <c r="F44" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I44" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="25"/>
-      <c r="B45" s="22" t="s">
+      <c r="A45" s="87"/>
+      <c r="B45" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C45" s="71"/>
       <c r="D45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="22" t="s">
+      <c r="E45" s="6"/>
+      <c r="F45" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="I45" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="26"/>
-      <c r="B46" s="23" t="s">
+      <c r="A46" s="88"/>
+      <c r="B46" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C46" s="72"/>
-      <c r="D46" s="65" t="s">
+      <c r="D46" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -4486,84 +4551,105 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="61" t="s">
+      <c r="D51" s="75"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="G51" s="31" t="s">
+      <c r="G51" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="32"/>
-      <c r="I51" s="33" t="s">
+      <c r="H51" s="80"/>
+      <c r="I51" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="39"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="59" t="s">
+      <c r="A52" s="74"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="60" t="s">
+      <c r="D52" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E52" s="42" t="s">
+      <c r="E52" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G52" s="41" t="s">
+      <c r="G52" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="42" t="s">
+      <c r="H52" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I52" s="43" t="s">
+      <c r="I52" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="73" t="s">
+      <c r="C53" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D53" s="74" t="s">
+      <c r="D53" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="47" t="s">
+      <c r="F53" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="G53" s="75" t="s">
+      <c r="G53" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H53" s="28" t="s">
+      <c r="H53" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="76" t="s">
+      <c r="I53" s="51" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="C26:C32"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="C51:E51"/>
@@ -4574,27 +4660,6 @@
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="A40:A46"/>
     <mergeCell ref="C41:C46"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
